--- a/biology/Microbiologie/Archives_de_l'Institut_Pasteur_de_Tunis/Archives_de_l'Institut_Pasteur_de_Tunis.xlsx
+++ b/biology/Microbiologie/Archives_de_l'Institut_Pasteur_de_Tunis/Archives_de_l'Institut_Pasteur_de_Tunis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Archives_de_l%27Institut_Pasteur_de_Tunis</t>
+          <t>Archives_de_l'Institut_Pasteur_de_Tunis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Archives de l'Institut Pasteur de Tunis, plus communément appelées Arch Inst Pasteur Tunis (abréviation internationale), est une revue médicale trimestrielle tunisienne fondée à Tunis en 1906 par Charles Nicolle (directeur de l'Institut Pasteur de Tunis de 1903 à 1936 et Prix Nobel de médecine) et publiée sous l'égide de la direction de l'agriculture, du commerce et de la colonisation, initialement par la Société anonyme de l'imprimerie rapide.
